--- a/网络设置信息.xlsx
+++ b/网络设置信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Document\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Design\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,6 +28,7 @@
     <sheet name="Sheet3" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1122">
   <si>
     <t>OFF/会议区</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4683,6 +4684,18 @@
   <si>
     <t>SD指令室</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           AP5</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>品证部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">98-97-CC- </t>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6020,7 +6033,27 @@
     <cellStyle name="日期" xfId="3"/>
     <cellStyle name="输入 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -13959,10 +13992,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="C1:AA165"/>
+  <dimension ref="C1:AE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A689" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H689" sqref="H689"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -13992,7 +14025,11 @@
     <col min="25" max="25" width="8.25" style="89" customWidth="1"/>
     <col min="26" max="26" width="14.125" style="89" customWidth="1"/>
     <col min="27" max="27" width="17.5" style="89" customWidth="1"/>
-    <col min="28" max="16384" width="10" style="89"/>
+    <col min="28" max="28" width="3.125" style="89" customWidth="1"/>
+    <col min="29" max="29" width="10" style="89"/>
+    <col min="30" max="30" width="14.625" style="89" customWidth="1"/>
+    <col min="31" max="31" width="19.625" style="89" customWidth="1"/>
+    <col min="32" max="16384" width="10" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="13.5" customHeight="1"/>
@@ -15252,7 +15289,7 @@
       <c r="H88" s="106"/>
       <c r="I88" s="106"/>
     </row>
-    <row r="98" spans="3:27" s="97" customFormat="1" ht="18" customHeight="1">
+    <row r="98" spans="3:31" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C98" s="93" t="s">
         <v>1074</v>
       </c>
@@ -15276,9 +15313,17 @@
       <c r="U98" s="96"/>
       <c r="V98" s="96"/>
       <c r="W98" s="96"/>
-    </row>
-    <row r="99" spans="3:27" ht="9" customHeight="1"/>
-    <row r="100" spans="3:27" s="98" customFormat="1">
+      <c r="X98" s="96"/>
+      <c r="Y98" s="96"/>
+      <c r="Z98" s="96"/>
+      <c r="AA98" s="96"/>
+      <c r="AB98" s="96"/>
+      <c r="AC98" s="96"/>
+      <c r="AD98" s="96"/>
+      <c r="AE98" s="96"/>
+    </row>
+    <row r="99" spans="3:31" ht="9" customHeight="1"/>
+    <row r="100" spans="3:31" s="98" customFormat="1">
       <c r="D100" s="129" t="s">
         <v>1025</v>
       </c>
@@ -15304,8 +15349,13 @@
       </c>
       <c r="Z100" s="129"/>
       <c r="AA100" s="91"/>
-    </row>
-    <row r="101" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC100" s="129" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AD100" s="129"/>
+      <c r="AE100" s="91"/>
+    </row>
+    <row r="101" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D101" s="100"/>
       <c r="E101" s="101" t="s">
         <v>1026</v>
@@ -15343,8 +15393,15 @@
       <c r="AA101" s="102" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC101" s="103"/>
+      <c r="AD101" s="104" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AE101" s="102" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D102" s="105"/>
       <c r="E102" s="101" t="s">
         <v>1028</v>
@@ -15382,8 +15439,15 @@
       <c r="AA102" s="102" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="103" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC102" s="103"/>
+      <c r="AD102" s="104" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AE102" s="102" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="103" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D103" s="105"/>
       <c r="E103" s="101" t="s">
         <v>1030</v>
@@ -15421,8 +15485,15 @@
       <c r="AA103" s="102" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="104" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC103" s="103"/>
+      <c r="AD103" s="104" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AE103" s="102" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="104" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D104" s="105"/>
       <c r="E104" s="101" t="s">
         <v>1034</v>
@@ -15460,8 +15531,15 @@
       <c r="AA104" s="102" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="105" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC104" s="105"/>
+      <c r="AD104" s="104" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE104" s="102" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="105" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D105" s="105"/>
       <c r="E105" s="101" t="s">
         <v>1036</v>
@@ -15499,8 +15577,15 @@
       <c r="AA105" s="107" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="106" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AC105" s="105"/>
+      <c r="AD105" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AE105" s="107" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="106" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D106" s="105"/>
       <c r="E106" s="101" t="s">
         <v>1040</v>
@@ -15514,7 +15599,7 @@
       <c r="J106" s="90"/>
       <c r="K106" s="91"/>
     </row>
-    <row r="107" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="107" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D107" s="105"/>
       <c r="E107" s="101" t="s">
         <v>1041</v>
@@ -15527,7 +15612,7 @@
       <c r="I107" s="106"/>
       <c r="J107" s="106"/>
     </row>
-    <row r="108" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="108" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D108" s="105"/>
       <c r="E108" s="101" t="s">
         <v>1043</v>
@@ -15540,7 +15625,7 @@
       <c r="I108" s="106"/>
       <c r="J108" s="106"/>
     </row>
-    <row r="109" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="109" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D109" s="105"/>
       <c r="E109" s="101" t="s">
         <v>1045</v>
@@ -15553,7 +15638,7 @@
       <c r="I109" s="106"/>
       <c r="J109" s="106"/>
     </row>
-    <row r="110" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="110" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D110" s="105"/>
       <c r="E110" s="101" t="s">
         <v>1047</v>
@@ -15566,7 +15651,7 @@
       <c r="I110" s="106"/>
       <c r="J110" s="106"/>
     </row>
-    <row r="111" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="111" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D111" s="105"/>
       <c r="E111" s="101" t="s">
         <v>1049</v>
@@ -15579,7 +15664,7 @@
       <c r="I111" s="106"/>
       <c r="J111" s="106"/>
     </row>
-    <row r="112" spans="3:27" s="98" customFormat="1" ht="16.5" customHeight="1">
+    <row r="112" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D112" s="105"/>
       <c r="E112" s="101" t="s">
         <v>1051</v>
@@ -15604,103 +15689,75 @@
       <c r="H113" s="106"/>
       <c r="I113" s="106"/>
     </row>
-    <row r="125" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
-      <c r="C125" s="93" t="s">
+    <row r="126" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
+      <c r="C126" s="93" t="s">
         <v>1081</v>
       </c>
-      <c r="D125" s="94"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="95"/>
-      <c r="G125" s="95"/>
-      <c r="H125" s="95"/>
-      <c r="I125" s="96"/>
-      <c r="J125" s="96"/>
-      <c r="K125" s="96"/>
-      <c r="L125" s="96"/>
-      <c r="M125" s="96"/>
-      <c r="N125" s="96"/>
-      <c r="O125" s="96"/>
-      <c r="P125" s="96"/>
-      <c r="Q125" s="96"/>
-      <c r="R125" s="96"/>
-      <c r="S125" s="96"/>
-      <c r="T125" s="96"/>
-      <c r="U125" s="96"/>
-      <c r="V125" s="96"/>
-      <c r="W125" s="96"/>
-    </row>
-    <row r="126" spans="3:23" ht="9" customHeight="1"/>
-    <row r="127" spans="3:23" s="98" customFormat="1">
-      <c r="D127" s="129" t="s">
+      <c r="D126" s="94"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="96"/>
+      <c r="Q126" s="96"/>
+      <c r="R126" s="96"/>
+      <c r="S126" s="96"/>
+      <c r="T126" s="96"/>
+      <c r="U126" s="96"/>
+      <c r="V126" s="96"/>
+      <c r="W126" s="96"/>
+    </row>
+    <row r="127" spans="3:23" ht="9" customHeight="1"/>
+    <row r="128" spans="3:23" s="98" customFormat="1">
+      <c r="D128" s="129" t="s">
         <v>1025</v>
       </c>
-      <c r="E127" s="129"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="129" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J127" s="129"/>
-      <c r="O127" s="129" t="s">
-        <v>1105</v>
-      </c>
-      <c r="P127" s="129"/>
-      <c r="Q127" s="91"/>
-      <c r="U127" s="129"/>
-      <c r="V127" s="129"/>
-      <c r="W127" s="91"/>
-    </row>
-    <row r="128" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D128" s="100"/>
-      <c r="E128" s="101" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F128" s="102" t="s">
-        <v>1082</v>
-      </c>
+      <c r="E128" s="129"/>
       <c r="G128" s="99"/>
       <c r="H128" s="99"/>
-      <c r="I128" s="103"/>
-      <c r="J128" s="104" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K128" s="102" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O128" s="103"/>
-      <c r="P128" s="104" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Q128" s="102" t="s">
-        <v>1029</v>
-      </c>
-      <c r="U128" s="103"/>
-      <c r="V128" s="104"/>
-      <c r="W128" s="102"/>
+      <c r="I128" s="129" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J128" s="129"/>
+      <c r="O128" s="129" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P128" s="129"/>
+      <c r="Q128" s="91"/>
+      <c r="U128" s="129"/>
+      <c r="V128" s="129"/>
+      <c r="W128" s="91"/>
     </row>
     <row r="129" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D129" s="105"/>
+      <c r="D129" s="100"/>
       <c r="E129" s="101" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F129" s="102" t="s">
-        <v>1029</v>
+        <v>1082</v>
       </c>
       <c r="G129" s="99"/>
-      <c r="H129" s="106"/>
+      <c r="H129" s="99"/>
       <c r="I129" s="103"/>
       <c r="J129" s="104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K129" s="102" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O129" s="103"/>
       <c r="P129" s="104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="Q129" s="102" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="U129" s="103"/>
       <c r="V129" s="104"/>
@@ -15709,26 +15766,26 @@
     <row r="130" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D130" s="105"/>
       <c r="E130" s="101" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F130" s="102" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G130" s="99"/>
       <c r="H130" s="106"/>
       <c r="I130" s="103"/>
       <c r="J130" s="104" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K130" s="102" t="s">
-        <v>1083</v>
+        <v>1031</v>
       </c>
       <c r="O130" s="103"/>
       <c r="P130" s="104" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Q130" s="102" t="s">
-        <v>1084</v>
+        <v>1031</v>
       </c>
       <c r="U130" s="103"/>
       <c r="V130" s="104"/>
@@ -15737,89 +15794,104 @@
     <row r="131" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D131" s="105"/>
       <c r="E131" s="101" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F131" s="102" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G131" s="99"/>
       <c r="H131" s="106"/>
-      <c r="I131" s="105"/>
+      <c r="I131" s="103"/>
       <c r="J131" s="104" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K131" s="102"/>
-      <c r="O131" s="105"/>
+        <v>1033</v>
+      </c>
+      <c r="K131" s="102" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O131" s="103"/>
       <c r="P131" s="104" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q131" s="102"/>
-      <c r="U131" s="105"/>
+        <v>1033</v>
+      </c>
+      <c r="Q131" s="102" t="s">
+        <v>1084</v>
+      </c>
+      <c r="U131" s="103"/>
       <c r="V131" s="104"/>
       <c r="W131" s="102"/>
     </row>
     <row r="132" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D132" s="105"/>
       <c r="E132" s="101" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F132" s="102" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G132" s="99"/>
       <c r="H132" s="106"/>
       <c r="I132" s="105"/>
       <c r="J132" s="104" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K132" s="107" t="s">
-        <v>1095</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="K132" s="102"/>
       <c r="O132" s="105"/>
       <c r="P132" s="104" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q132" s="107" t="s">
-        <v>1096</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="Q132" s="102"/>
       <c r="U132" s="105"/>
       <c r="V132" s="104"/>
-      <c r="W132" s="107"/>
+      <c r="W132" s="102"/>
     </row>
     <row r="133" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D133" s="105"/>
       <c r="E133" s="101" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F133" s="108" t="s">
-        <v>1111</v>
+        <v>1036</v>
+      </c>
+      <c r="F133" s="102" t="s">
+        <v>1037</v>
       </c>
       <c r="G133" s="99"/>
       <c r="H133" s="106"/>
-      <c r="I133" s="90"/>
-      <c r="J133" s="90"/>
-      <c r="K133" s="91"/>
+      <c r="I133" s="105"/>
+      <c r="J133" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K133" s="107" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O133" s="105"/>
+      <c r="P133" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q133" s="107" t="s">
+        <v>1096</v>
+      </c>
+      <c r="U133" s="105"/>
+      <c r="V133" s="104"/>
+      <c r="W133" s="107"/>
     </row>
     <row r="134" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D134" s="105"/>
       <c r="E134" s="101" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F134" s="102" t="s">
-        <v>1042</v>
+        <v>1040</v>
+      </c>
+      <c r="F134" s="108" t="s">
+        <v>1111</v>
       </c>
       <c r="G134" s="99"/>
       <c r="H134" s="106"/>
-      <c r="I134" s="106"/>
-      <c r="J134" s="106"/>
+      <c r="I134" s="90"/>
+      <c r="J134" s="90"/>
+      <c r="K134" s="91"/>
     </row>
     <row r="135" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D135" s="105"/>
       <c r="E135" s="101" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F135" s="108" t="s">
-        <v>1044</v>
+        <v>1041</v>
+      </c>
+      <c r="F135" s="102" t="s">
+        <v>1042</v>
       </c>
       <c r="G135" s="99"/>
       <c r="H135" s="106"/>
@@ -15829,10 +15901,10 @@
     <row r="136" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D136" s="105"/>
       <c r="E136" s="101" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F136" s="108" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G136" s="99"/>
       <c r="H136" s="106"/>
@@ -15842,10 +15914,10 @@
     <row r="137" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D137" s="105"/>
       <c r="E137" s="101" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F137" s="102" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="F137" s="108" t="s">
+        <v>1046</v>
       </c>
       <c r="G137" s="99"/>
       <c r="H137" s="106"/>
@@ -15855,10 +15927,10 @@
     <row r="138" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D138" s="105"/>
       <c r="E138" s="101" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F138" s="109" t="s">
-        <v>1050</v>
+        <v>1047</v>
+      </c>
+      <c r="F138" s="102" t="s">
+        <v>1048</v>
       </c>
       <c r="G138" s="99"/>
       <c r="H138" s="106"/>
@@ -15868,10 +15940,10 @@
     <row r="139" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D139" s="105"/>
       <c r="E139" s="101" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F139" s="102" t="s">
-        <v>1052</v>
+        <v>1049</v>
+      </c>
+      <c r="F139" s="109" t="s">
+        <v>1050</v>
       </c>
       <c r="G139" s="99"/>
       <c r="H139" s="106"/>
@@ -15881,251 +15953,251 @@
     <row r="140" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D140" s="105"/>
       <c r="E140" s="101" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F140" s="102" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G140" s="106"/>
+        <v>1052</v>
+      </c>
+      <c r="G140" s="99"/>
       <c r="H140" s="106"/>
       <c r="I140" s="106"/>
-    </row>
-    <row r="150" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
-      <c r="C150" s="93" t="s">
+      <c r="J140" s="106"/>
+    </row>
+    <row r="141" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D141" s="105"/>
+      <c r="E141" s="101" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F141" s="102" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G141" s="106"/>
+      <c r="H141" s="106"/>
+      <c r="I141" s="106"/>
+    </row>
+    <row r="151" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
+      <c r="C151" s="93" t="s">
         <v>1080</v>
       </c>
-      <c r="D150" s="94"/>
-      <c r="E150" s="94"/>
-      <c r="F150" s="95"/>
-      <c r="G150" s="95"/>
-      <c r="H150" s="95"/>
-      <c r="I150" s="96"/>
-      <c r="J150" s="96"/>
-      <c r="K150" s="96"/>
-      <c r="L150" s="96"/>
-      <c r="M150" s="96"/>
-      <c r="N150" s="96"/>
-      <c r="O150" s="96"/>
-      <c r="P150" s="96"/>
-      <c r="Q150" s="96"/>
-      <c r="R150" s="96"/>
-      <c r="S150" s="96"/>
-      <c r="T150" s="96"/>
-      <c r="U150" s="96"/>
-      <c r="V150" s="96"/>
-      <c r="W150" s="96"/>
-    </row>
-    <row r="151" spans="3:23" ht="9" customHeight="1"/>
-    <row r="152" spans="3:23" s="98" customFormat="1">
-      <c r="D152" s="129" t="s">
+      <c r="D151" s="94"/>
+      <c r="E151" s="94"/>
+      <c r="F151" s="95"/>
+      <c r="G151" s="95"/>
+      <c r="H151" s="95"/>
+      <c r="I151" s="96"/>
+      <c r="J151" s="96"/>
+      <c r="K151" s="96"/>
+      <c r="L151" s="96"/>
+      <c r="M151" s="96"/>
+      <c r="N151" s="96"/>
+      <c r="O151" s="96"/>
+      <c r="P151" s="96"/>
+      <c r="Q151" s="96"/>
+      <c r="R151" s="96"/>
+      <c r="S151" s="96"/>
+      <c r="T151" s="96"/>
+      <c r="U151" s="96"/>
+      <c r="V151" s="96"/>
+      <c r="W151" s="96"/>
+    </row>
+    <row r="152" spans="3:23" ht="9" customHeight="1"/>
+    <row r="153" spans="3:23" s="98" customFormat="1">
+      <c r="D153" s="129" t="s">
         <v>1025</v>
       </c>
-      <c r="E152" s="129"/>
-      <c r="G152" s="99"/>
-      <c r="H152" s="99"/>
-      <c r="I152" s="129" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J152" s="129"/>
-      <c r="O152" s="129" t="s">
-        <v>1105</v>
-      </c>
-      <c r="P152" s="129"/>
-      <c r="Q152" s="91"/>
-      <c r="U152" s="129" t="s">
-        <v>1106</v>
-      </c>
-      <c r="V152" s="129"/>
-      <c r="W152" s="91"/>
-    </row>
-    <row r="153" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D153" s="100"/>
-      <c r="E153" s="101" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F153" s="102" t="s">
-        <v>1064</v>
-      </c>
+      <c r="E153" s="129"/>
       <c r="G153" s="99"/>
       <c r="H153" s="99"/>
-      <c r="I153" s="103"/>
-      <c r="J153" s="104" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K153" s="102" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O153" s="103"/>
-      <c r="P153" s="104" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Q153" s="102" t="s">
-        <v>1029</v>
-      </c>
-      <c r="U153" s="103"/>
-      <c r="V153" s="104" t="s">
-        <v>1028</v>
-      </c>
-      <c r="W153" s="102" t="s">
-        <v>1029</v>
-      </c>
+      <c r="I153" s="129" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J153" s="129"/>
+      <c r="O153" s="129" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P153" s="129"/>
+      <c r="Q153" s="91"/>
+      <c r="U153" s="129" t="s">
+        <v>1106</v>
+      </c>
+      <c r="V153" s="129"/>
+      <c r="W153" s="91"/>
     </row>
     <row r="154" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D154" s="105"/>
+      <c r="D154" s="100"/>
       <c r="E154" s="101" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F154" s="102" t="s">
-        <v>1029</v>
+        <v>1064</v>
       </c>
       <c r="G154" s="99"/>
-      <c r="H154" s="106"/>
+      <c r="H154" s="99"/>
       <c r="I154" s="103"/>
       <c r="J154" s="104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K154" s="102" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O154" s="103"/>
       <c r="P154" s="104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="Q154" s="102" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="U154" s="103"/>
       <c r="V154" s="104" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W154" s="102" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="155" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D155" s="105"/>
       <c r="E155" s="101" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F155" s="102" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G155" s="99"/>
       <c r="H155" s="106"/>
       <c r="I155" s="103"/>
       <c r="J155" s="104" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K155" s="102" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="O155" s="103"/>
       <c r="P155" s="104" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Q155" s="102" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="U155" s="103"/>
       <c r="V155" s="104" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="W155" s="102" t="s">
-        <v>1068</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="156" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D156" s="105"/>
       <c r="E156" s="101" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F156" s="102" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G156" s="99"/>
       <c r="H156" s="106"/>
-      <c r="I156" s="105"/>
+      <c r="I156" s="103"/>
       <c r="J156" s="104" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K156" s="102"/>
-      <c r="O156" s="105"/>
+        <v>1033</v>
+      </c>
+      <c r="K156" s="102" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O156" s="103"/>
       <c r="P156" s="104" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q156" s="102"/>
-      <c r="U156" s="105"/>
+        <v>1033</v>
+      </c>
+      <c r="Q156" s="102" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U156" s="103"/>
       <c r="V156" s="104" t="s">
-        <v>1034</v>
-      </c>
-      <c r="W156" s="102"/>
+        <v>1033</v>
+      </c>
+      <c r="W156" s="102" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="157" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D157" s="105"/>
       <c r="E157" s="101" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F157" s="102" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G157" s="99"/>
       <c r="H157" s="106"/>
       <c r="I157" s="105"/>
       <c r="J157" s="104" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K157" s="107" t="s">
-        <v>1097</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="K157" s="102"/>
       <c r="O157" s="105"/>
       <c r="P157" s="104" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q157" s="107" t="s">
-        <v>1098</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="Q157" s="102"/>
       <c r="U157" s="105"/>
       <c r="V157" s="104" t="s">
-        <v>1038</v>
-      </c>
-      <c r="W157" s="107" t="s">
-        <v>1099</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="W157" s="102"/>
     </row>
     <row r="158" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D158" s="105"/>
       <c r="E158" s="101" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F158" s="108" t="s">
-        <v>1085</v>
+        <v>1036</v>
+      </c>
+      <c r="F158" s="102" t="s">
+        <v>1037</v>
       </c>
       <c r="G158" s="99"/>
       <c r="H158" s="106"/>
-      <c r="I158" s="90"/>
-      <c r="J158" s="90"/>
-      <c r="K158" s="91"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K158" s="107" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O158" s="105"/>
+      <c r="P158" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q158" s="107" t="s">
+        <v>1098</v>
+      </c>
+      <c r="U158" s="105"/>
+      <c r="V158" s="104" t="s">
+        <v>1038</v>
+      </c>
+      <c r="W158" s="107" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="159" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D159" s="105"/>
       <c r="E159" s="101" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F159" s="102" t="s">
-        <v>1042</v>
+        <v>1040</v>
+      </c>
+      <c r="F159" s="108" t="s">
+        <v>1085</v>
       </c>
       <c r="G159" s="99"/>
       <c r="H159" s="106"/>
-      <c r="I159" s="106"/>
-      <c r="J159" s="106"/>
+      <c r="I159" s="90"/>
+      <c r="J159" s="90"/>
+      <c r="K159" s="91"/>
     </row>
     <row r="160" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D160" s="105"/>
       <c r="E160" s="101" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F160" s="108" t="s">
-        <v>1044</v>
+        <v>1041</v>
+      </c>
+      <c r="F160" s="102" t="s">
+        <v>1042</v>
       </c>
       <c r="G160" s="99"/>
       <c r="H160" s="106"/>
@@ -16135,10 +16207,10 @@
     <row r="161" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D161" s="105"/>
       <c r="E161" s="101" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F161" s="108" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G161" s="99"/>
       <c r="H161" s="106"/>
@@ -16148,10 +16220,10 @@
     <row r="162" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D162" s="105"/>
       <c r="E162" s="101" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F162" s="102" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="F162" s="108" t="s">
+        <v>1046</v>
       </c>
       <c r="G162" s="99"/>
       <c r="H162" s="106"/>
@@ -16161,10 +16233,10 @@
     <row r="163" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D163" s="105"/>
       <c r="E163" s="101" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F163" s="109" t="s">
-        <v>1050</v>
+        <v>1047</v>
+      </c>
+      <c r="F163" s="102" t="s">
+        <v>1048</v>
       </c>
       <c r="G163" s="99"/>
       <c r="H163" s="106"/>
@@ -16174,10 +16246,10 @@
     <row r="164" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D164" s="105"/>
       <c r="E164" s="101" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F164" s="102" t="s">
-        <v>1052</v>
+        <v>1049</v>
+      </c>
+      <c r="F164" s="109" t="s">
+        <v>1050</v>
       </c>
       <c r="G164" s="99"/>
       <c r="H164" s="106"/>
@@ -16187,17 +16259,30 @@
     <row r="165" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D165" s="105"/>
       <c r="E165" s="101" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F165" s="102" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G165" s="106"/>
+        <v>1052</v>
+      </c>
+      <c r="G165" s="99"/>
       <c r="H165" s="106"/>
       <c r="I165" s="106"/>
+      <c r="J165" s="106"/>
+    </row>
+    <row r="166" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D166" s="105"/>
+      <c r="E166" s="101" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F166" s="102" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G166" s="106"/>
+      <c r="H166" s="106"/>
+      <c r="I166" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="O4:P4"/>
@@ -16214,612 +16299,633 @@
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="O75:P75"/>
     <mergeCell ref="U75:V75"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="U152:V152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="U153:V153"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="I100:J100"/>
     <mergeCell ref="O100:P100"/>
     <mergeCell ref="U100:V100"/>
+    <mergeCell ref="AC100:AD100"/>
     <mergeCell ref="Y100:Z100"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="U127:V127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="U128:V128"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F9:H9 G4:H8 F5:F8 K5:K6 G10:H16 G17 K10 G22:H25 Q4">
-    <cfRule type="cellIs" dxfId="118" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="cellIs" dxfId="117" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="120" priority="184" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="119" priority="183" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="118" priority="181" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="117" priority="182" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H21">
     <cfRule type="cellIs" dxfId="116" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="K7">
     <cfRule type="cellIs" dxfId="115" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="114" priority="177" operator="lessThan">
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="cellIs" dxfId="114" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="113" priority="178" operator="lessThan">
+  <conditionalFormatting sqref="Q5:Q6">
+    <cfRule type="cellIs" dxfId="113" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H21">
-    <cfRule type="cellIs" dxfId="112" priority="176" operator="lessThan">
+  <conditionalFormatting sqref="K156">
+    <cfRule type="cellIs" dxfId="112" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="cellIs" dxfId="111" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="cellIs" dxfId="110" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" dxfId="109" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="lessThan">
+  <conditionalFormatting sqref="W5:W6">
+    <cfRule type="cellIs" dxfId="108" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
+  <conditionalFormatting sqref="W7">
     <cfRule type="cellIs" dxfId="107" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="W8:W9">
     <cfRule type="cellIs" dxfId="106" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" dxfId="105" priority="169" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W6">
-    <cfRule type="cellIs" dxfId="104" priority="168" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="103" priority="167" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8:W9">
-    <cfRule type="cellIs" dxfId="102" priority="166" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W156:W157">
-    <cfRule type="cellIs" dxfId="101" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="W157:W158">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W104:W105">
-    <cfRule type="cellIs" dxfId="100" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="103" priority="164" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:H33 G28:H32 F29:F32 K29:K30 G34:H40 G41 K34 Q28">
+    <cfRule type="cellIs" dxfId="102" priority="163" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F36">
+    <cfRule type="cellIs" dxfId="101" priority="162" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="100" priority="161" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="99" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:H33 G28:H32 F29:F32 K29:K30 G34:H40 G41 K34 Q28">
-    <cfRule type="cellIs" dxfId="98" priority="159" operator="lessThan">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="98" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F36">
-    <cfRule type="cellIs" dxfId="97" priority="158" operator="lessThan">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="97" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="K31">
     <cfRule type="cellIs" dxfId="96" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="cellIs" dxfId="95" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="94" priority="154" operator="lessThan">
+  <conditionalFormatting sqref="Q29:Q30">
+    <cfRule type="cellIs" dxfId="94" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="93" priority="155" operator="lessThan">
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="cellIs" dxfId="93" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="cellIs" dxfId="92" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+  <conditionalFormatting sqref="W28">
     <cfRule type="cellIs" dxfId="91" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:Q30">
+  <conditionalFormatting sqref="W29:W30">
     <cfRule type="cellIs" dxfId="90" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
+  <conditionalFormatting sqref="W31">
     <cfRule type="cellIs" dxfId="89" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q33">
+  <conditionalFormatting sqref="W32:W33">
     <cfRule type="cellIs" dxfId="88" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="87" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:W30">
+  <conditionalFormatting sqref="F56:H56 G51:H55 F52:F55 K52:K53 G57:H63 G64 K57 Q51">
     <cfRule type="cellIs" dxfId="86" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="F57:F59">
     <cfRule type="cellIs" dxfId="85" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32:W33">
+  <conditionalFormatting sqref="F60">
     <cfRule type="cellIs" dxfId="84" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F61">
     <cfRule type="cellIs" dxfId="83" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:H56 G51:H55 F52:F55 K52:K53 G57:H63 G64 K57 Q51">
-    <cfRule type="cellIs" dxfId="82" priority="143" operator="lessThan">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="82" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F59">
-    <cfRule type="cellIs" dxfId="81" priority="142" operator="lessThan">
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="81" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="K54">
     <cfRule type="cellIs" dxfId="80" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
+  <conditionalFormatting sqref="K55:K56">
     <cfRule type="cellIs" dxfId="79" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="78" priority="138" operator="lessThan">
+  <conditionalFormatting sqref="Q52:Q53">
+    <cfRule type="cellIs" dxfId="78" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="77" priority="139" operator="lessThan">
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="cellIs" dxfId="77" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="Q55:Q56">
     <cfRule type="cellIs" dxfId="76" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:K56">
+  <conditionalFormatting sqref="W51">
     <cfRule type="cellIs" dxfId="75" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q52:Q53">
+  <conditionalFormatting sqref="W52:W53">
     <cfRule type="cellIs" dxfId="74" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54">
+  <conditionalFormatting sqref="W54">
     <cfRule type="cellIs" dxfId="73" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q56">
+  <conditionalFormatting sqref="W55:W56">
     <cfRule type="cellIs" dxfId="72" priority="133" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W51">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" dxfId="71" priority="132" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W52:W53">
+  <conditionalFormatting sqref="F80:H80 G75:H79 F76:F79 K76:K77 G81:H87 G88 K81 Q75">
     <cfRule type="cellIs" dxfId="70" priority="131" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W54">
+  <conditionalFormatting sqref="F81:F83">
     <cfRule type="cellIs" dxfId="69" priority="130" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:W56">
+  <conditionalFormatting sqref="F84">
     <cfRule type="cellIs" dxfId="68" priority="129" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F85">
     <cfRule type="cellIs" dxfId="67" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80:H80 G75:H79 F76:F79 K76:K77 G81:H87 G88 K81 Q75">
-    <cfRule type="cellIs" dxfId="66" priority="127" operator="lessThan">
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="66" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F83">
-    <cfRule type="cellIs" dxfId="65" priority="126" operator="lessThan">
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="65" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
+  <conditionalFormatting sqref="K78">
     <cfRule type="cellIs" dxfId="64" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
+  <conditionalFormatting sqref="K79:K80">
     <cfRule type="cellIs" dxfId="63" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="62" priority="122" operator="lessThan">
+  <conditionalFormatting sqref="Q76:Q77">
+    <cfRule type="cellIs" dxfId="62" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="61" priority="123" operator="lessThan">
+  <conditionalFormatting sqref="Q78">
+    <cfRule type="cellIs" dxfId="61" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78">
+  <conditionalFormatting sqref="Q79:Q80">
     <cfRule type="cellIs" dxfId="60" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:K80">
+  <conditionalFormatting sqref="W75">
     <cfRule type="cellIs" dxfId="59" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q76:Q77">
+  <conditionalFormatting sqref="W76:W77">
     <cfRule type="cellIs" dxfId="58" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q78">
+  <conditionalFormatting sqref="W78">
     <cfRule type="cellIs" dxfId="57" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q79:Q80">
+  <conditionalFormatting sqref="W79:W80">
     <cfRule type="cellIs" dxfId="56" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W75">
+  <conditionalFormatting sqref="F88">
     <cfRule type="cellIs" dxfId="55" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W76:W77">
-    <cfRule type="cellIs" dxfId="54" priority="115" operator="lessThan">
+  <conditionalFormatting sqref="F105:H105 G100:H104 F101:F104 K101:K102 G106:H112 G113 K106">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W78">
-    <cfRule type="cellIs" dxfId="53" priority="114" operator="lessThan">
+  <conditionalFormatting sqref="F106:F108">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W79:W80">
-    <cfRule type="cellIs" dxfId="52" priority="113" operator="lessThan">
+  <conditionalFormatting sqref="F109">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
-    <cfRule type="cellIs" dxfId="51" priority="112" operator="lessThan">
+  <conditionalFormatting sqref="F110">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:H105 G100:H104 F101:F104 K101:K102 G106:H112 G113 K106">
+  <conditionalFormatting sqref="F112">
     <cfRule type="cellIs" dxfId="50" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:F108">
+  <conditionalFormatting sqref="F111">
     <cfRule type="cellIs" dxfId="49" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
+  <conditionalFormatting sqref="K103">
     <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
+  <conditionalFormatting sqref="K104:K105">
     <cfRule type="cellIs" dxfId="47" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="lessThan">
+  <conditionalFormatting sqref="W154:W155">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="lessThan">
+  <conditionalFormatting sqref="F166">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="44" priority="57" operator="lessThan">
+  <conditionalFormatting sqref="Q154:Q155">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104:K105">
+  <conditionalFormatting sqref="W100">
     <cfRule type="cellIs" dxfId="43" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W153:W154">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="F113">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q101:Q102">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q103">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q104:Q105">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F133:H133 G128:H132 F129:F132 K129:K130 G134:H140 G141 K134 Q128">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:F136">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F137">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F138">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F139">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K131">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K132:K133">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W128">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W129:W130">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W131">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W132:W133">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q129:Q130">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q131">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132:Q133">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F158:H158 G153:H157 F154:F157 K154:K155 G159:H165 G166 K159">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159:F161">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F163">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q153:Q154">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="K157:K158">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W100">
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="lessThan">
+  <conditionalFormatting sqref="W153">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113">
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
+  <conditionalFormatting sqref="W156">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q101:Q102">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q103">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q104:Q105">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F132:H132 G127:H131 F128:F131 K128:K129 G133:H139 G140 K133 Q127">
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F133:F135">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F137">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F139">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K130">
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K131:K132">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W127">
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W128:W129">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W130">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W131:W132">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q128:Q129">
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q130">
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q131:Q132">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F157:H157 G152:H156 F153:F156 K153:K154 G158:H164 G165 K158">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158:F160">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K156:K157">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W152">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W155">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q155">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="Q156">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q100">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q156:Q157">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="Q157:Q158">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q152">
+  <conditionalFormatting sqref="Q153">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W101:W102">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W103">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA104:AA105">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA100">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W101:W102">
+  <conditionalFormatting sqref="AA101:AA102">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W103">
+  <conditionalFormatting sqref="AA103">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA104:AA105">
+  <conditionalFormatting sqref="AE104:AE105">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA100">
+  <conditionalFormatting sqref="AE100">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA101:AA102">
+  <conditionalFormatting sqref="AE101:AE102">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA103">
+  <conditionalFormatting sqref="AE103">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/网络设置信息.xlsx
+++ b/网络设置信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9555" windowHeight="2565" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9555" windowHeight="2565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1号楼1层" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="Sheet3" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1132">
   <si>
     <t>OFF/会议区</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3426,75 +3425,6 @@
   </si>
   <si>
     <t>H3C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>556</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PWR</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4696,6 +4626,115 @@
   <si>
     <t xml:space="preserve">98-97-CC- </t>
     <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.26.35.253</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理部金库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet/console</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysusr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysusr@vty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cte.sys.usr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>企画课机房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5560X-30C-PWR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.26.32.253</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PWR</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5641,7 +5680,7 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5967,7 +6006,7 @@
     <xf numFmtId="44" fontId="56" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5976,13 +6015,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5991,6 +6024,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5998,12 +6037,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6018,11 +6051,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7162,7 +7207,7 @@
   </sheetPr>
   <dimension ref="A2:J286"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A78" sqref="A78:IV78"/>
     </sheetView>
   </sheetViews>
@@ -7174,39 +7219,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>934</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>931</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>932</v>
       </c>
       <c r="D5" s="112"/>
@@ -7217,7 +7262,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>933</v>
       </c>
       <c r="D6" s="112"/>
@@ -7231,7 +7276,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="117" t="s">
         <v>935</v>
       </c>
       <c r="D7" s="112"/>
@@ -7242,62 +7287,62 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" customHeight="1">
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>936</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
       <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" customHeight="1">
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>4</v>
       </c>
       <c r="D13" s="112"/>
@@ -7310,14 +7355,14 @@
       <c r="B14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="114">
         <v>16</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" customHeight="1">
       <c r="B15" s="42"/>
@@ -7325,8 +7370,8 @@
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="2:10" ht="16.5" customHeight="1">
       <c r="H16" s="15"/>
@@ -7448,12 +7493,12 @@
       <c r="J22" s="24"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:10" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="42"/>
@@ -10791,22 +10836,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -10844,32 +10889,32 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -10879,7 +10924,7 @@
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>537</v>
       </c>
       <c r="D5" s="112"/>
@@ -10893,7 +10938,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>538</v>
       </c>
       <c r="D6" s="112"/>
@@ -10907,7 +10952,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>39444</v>
       </c>
       <c r="D7" s="112"/>
@@ -10921,11 +10966,11 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -10935,11 +10980,11 @@
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -10949,11 +10994,11 @@
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="H10" s="15"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -10963,11 +11008,11 @@
       <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -10977,11 +11022,11 @@
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="H12" s="15"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -10991,7 +11036,7 @@
       <c r="B13" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>16</v>
       </c>
       <c r="D13" s="112"/>
@@ -11005,7 +11050,7 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>2</v>
       </c>
       <c r="D14" s="112"/>
@@ -11019,11 +11064,11 @@
       <c r="B15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>16</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
       <c r="H15" s="15"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -11148,12 +11193,12 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:10" s="19" customFormat="1">
       <c r="B29" s="18" t="s">
@@ -12957,7 +13002,7 @@
     </row>
     <row r="49" spans="2:17" ht="18.75" customHeight="1">
       <c r="B49" s="78" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
@@ -12995,7 +13040,7 @@
     </row>
     <row r="51" spans="2:17" ht="17.25">
       <c r="B51" s="78" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -13032,10 +13077,10 @@
     </row>
     <row r="53" spans="2:17" ht="19.5">
       <c r="B53" s="82" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C53" s="121" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D53" s="121"/>
       <c r="E53" s="54"/>
@@ -13054,10 +13099,10 @@
     </row>
     <row r="54" spans="2:17" ht="102.75" customHeight="1">
       <c r="B54" s="83" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D54" s="120"/>
       <c r="E54" s="54"/>
@@ -13076,10 +13121,10 @@
     </row>
     <row r="55" spans="2:17" ht="93" customHeight="1">
       <c r="B55" s="83" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D55" s="120"/>
       <c r="E55" s="54"/>
@@ -13098,10 +13143,10 @@
     </row>
     <row r="56" spans="2:17" ht="105" customHeight="1">
       <c r="B56" s="83" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D56" s="120"/>
       <c r="E56" s="54"/>
@@ -13120,7 +13165,7 @@
     </row>
     <row r="57" spans="2:17" ht="17.25">
       <c r="B57" s="83" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C57" s="119"/>
       <c r="D57" s="120"/>
@@ -13140,7 +13185,7 @@
     </row>
     <row r="58" spans="2:17" ht="17.25">
       <c r="B58" s="83" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C58" s="119"/>
       <c r="D58" s="120"/>
@@ -13160,7 +13205,7 @@
     </row>
     <row r="59" spans="2:17" ht="17.25">
       <c r="B59" s="83" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="120"/>
@@ -13279,7 +13324,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>19</v>
@@ -13294,10 +13339,10 @@
         <v>16</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>27</v>
@@ -13314,22 +13359,22 @@
         <v>60004741</v>
       </c>
       <c r="G66" s="86" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H66" s="86" t="s">
         <v>1008</v>
       </c>
-      <c r="H66" s="86" t="s">
+      <c r="I66" s="86" t="s">
         <v>1009</v>
       </c>
-      <c r="I66" s="86" t="s">
-        <v>1010</v>
-      </c>
       <c r="J66" s="87" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K66" s="77" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L66" s="76" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M66" s="54"/>
       <c r="N66" s="54"/>
@@ -13689,7 +13734,7 @@
         <v>868</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E90" s="55" t="s">
         <v>850</v>
@@ -13731,27 +13776,27 @@
         <v>877</v>
       </c>
       <c r="R90" s="55" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="2:18" ht="16.5">
       <c r="B91" s="53" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E91" s="53" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F91" s="53" t="s">
         <v>851</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H91" s="53" t="s">
         <v>887</v>
@@ -13760,10 +13805,10 @@
         <v>856</v>
       </c>
       <c r="J91" s="56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K91" s="56" t="s">
         <v>1015</v>
-      </c>
-      <c r="K91" s="56" t="s">
-        <v>1016</v>
       </c>
       <c r="L91" s="53" t="s">
         <v>857</v>
@@ -13794,7 +13839,7 @@
         <v>912</v>
       </c>
       <c r="E92" s="53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F92" s="53" t="s">
         <v>851</v>
@@ -13994,7 +14039,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="C1:AE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
@@ -14035,7 +14080,7 @@
     <row r="1" spans="3:23" ht="13.5" customHeight="1"/>
     <row r="2" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C2" s="93" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="94"/>
@@ -14061,17 +14106,17 @@
     <row r="3" spans="3:23" ht="9" customHeight="1"/>
     <row r="4" spans="3:23" s="98" customFormat="1">
       <c r="D4" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E4" s="129"/>
       <c r="G4" s="99"/>
       <c r="H4" s="99"/>
       <c r="I4" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J4" s="129"/>
       <c r="O4" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P4" s="129"/>
       <c r="Q4" s="91"/>
@@ -14082,26 +14127,26 @@
     <row r="5" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D5" s="100"/>
       <c r="E5" s="101" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F5" s="102" t="s">
         <v>1026</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>1027</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="99"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K5" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K5" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O5" s="103"/>
       <c r="P5" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q5" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q5" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U5" s="103"/>
       <c r="V5" s="104"/>
@@ -14110,26 +14155,26 @@
     <row r="6" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D6" s="105"/>
       <c r="E6" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F6" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G6" s="99"/>
       <c r="H6" s="106"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K6" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K6" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O6" s="103"/>
       <c r="P6" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q6" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q6" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="104"/>
@@ -14138,26 +14183,26 @@
     <row r="7" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D7" s="105"/>
       <c r="E7" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G7" s="99"/>
       <c r="H7" s="106"/>
       <c r="I7" s="103"/>
       <c r="J7" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K7" s="102" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O7" s="103"/>
       <c r="P7" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q7" s="102" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="U7" s="103"/>
       <c r="V7" s="104"/>
@@ -14166,21 +14211,21 @@
     <row r="8" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D8" s="105"/>
       <c r="E8" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F8" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="106"/>
       <c r="I8" s="105"/>
       <c r="J8" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K8" s="102"/>
       <c r="O8" s="105"/>
       <c r="P8" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q8" s="102"/>
       <c r="U8" s="105"/>
@@ -14190,26 +14235,26 @@
     <row r="9" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D9" s="105"/>
       <c r="E9" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F9" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="106"/>
       <c r="I9" s="105"/>
       <c r="J9" s="104" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K9" s="107" t="s">
         <v>1038</v>
-      </c>
-      <c r="K9" s="107" t="s">
-        <v>1039</v>
       </c>
       <c r="O9" s="105"/>
       <c r="P9" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q9" s="107" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="U9" s="105"/>
       <c r="V9" s="104"/>
@@ -14218,10 +14263,10 @@
     <row r="10" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D10" s="105"/>
       <c r="E10" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="106"/>
@@ -14232,10 +14277,10 @@
     <row r="11" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D11" s="105"/>
       <c r="E11" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F11" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G11" s="99"/>
       <c r="H11" s="106"/>
@@ -14245,10 +14290,10 @@
     <row r="12" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D12" s="105"/>
       <c r="E12" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F12" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G12" s="99"/>
       <c r="H12" s="106"/>
@@ -14258,10 +14303,10 @@
     <row r="13" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D13" s="105"/>
       <c r="E13" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="106"/>
@@ -14271,10 +14316,10 @@
     <row r="14" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D14" s="105"/>
       <c r="E14" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F14" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G14" s="99"/>
       <c r="H14" s="106"/>
@@ -14284,10 +14329,10 @@
     <row r="15" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D15" s="105"/>
       <c r="E15" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F15" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G15" s="99"/>
       <c r="H15" s="106"/>
@@ -14297,10 +14342,10 @@
     <row r="16" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D16" s="105"/>
       <c r="E16" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F16" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="106"/>
@@ -14310,10 +14355,10 @@
     <row r="17" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D17" s="105"/>
       <c r="E17" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F17" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G17" s="106"/>
       <c r="H17" s="106"/>
@@ -14367,7 +14412,7 @@
     </row>
     <row r="26" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C26" s="93" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="94"/>
       <c r="E26" s="94"/>
@@ -14393,22 +14438,22 @@
     <row r="27" spans="3:23" ht="9" customHeight="1"/>
     <row r="28" spans="3:23" s="98" customFormat="1">
       <c r="D28" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E28" s="129"/>
       <c r="G28" s="99"/>
       <c r="H28" s="99"/>
       <c r="I28" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J28" s="129"/>
       <c r="O28" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P28" s="129"/>
       <c r="Q28" s="91"/>
       <c r="U28" s="129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V28" s="129"/>
       <c r="W28" s="91"/>
@@ -14416,170 +14461,170 @@
     <row r="29" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D29" s="100"/>
       <c r="E29" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F29" s="102" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="103"/>
       <c r="J29" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K29" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K29" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O29" s="103"/>
       <c r="P29" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q29" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q29" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U29" s="103"/>
       <c r="V29" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W29" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="W29" s="102" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D30" s="105"/>
       <c r="E30" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F30" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F30" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="106"/>
       <c r="I30" s="103"/>
       <c r="J30" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K30" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K30" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O30" s="103"/>
       <c r="P30" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q30" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q30" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U30" s="103"/>
       <c r="V30" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W30" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="W30" s="102" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D31" s="105"/>
       <c r="E31" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="106"/>
       <c r="I31" s="103"/>
       <c r="J31" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K31" s="102" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O31" s="103"/>
       <c r="P31" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q31" s="102" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="U31" s="103"/>
       <c r="V31" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W31" s="102" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="32" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D32" s="105"/>
       <c r="E32" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F32" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F32" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G32" s="99"/>
       <c r="H32" s="106"/>
       <c r="I32" s="105"/>
       <c r="J32" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K32" s="102" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O32" s="105"/>
       <c r="P32" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q32" s="102" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="U32" s="105"/>
       <c r="V32" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W32" s="102" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="33" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D33" s="105"/>
       <c r="E33" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F33" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F33" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G33" s="99"/>
       <c r="H33" s="106"/>
       <c r="I33" s="105"/>
       <c r="J33" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K33" s="107" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O33" s="105"/>
       <c r="P33" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q33" s="107" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="U33" s="105"/>
       <c r="V33" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W33" s="107" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D34" s="105"/>
       <c r="E34" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G34" s="99"/>
       <c r="H34" s="106"/>
@@ -14590,10 +14635,10 @@
     <row r="35" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D35" s="105"/>
       <c r="E35" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F35" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G35" s="99"/>
       <c r="H35" s="106"/>
@@ -14603,10 +14648,10 @@
     <row r="36" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D36" s="105"/>
       <c r="E36" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F36" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F36" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G36" s="99"/>
       <c r="H36" s="106"/>
@@ -14616,10 +14661,10 @@
     <row r="37" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D37" s="105"/>
       <c r="E37" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F37" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F37" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G37" s="99"/>
       <c r="H37" s="106"/>
@@ -14629,10 +14674,10 @@
     <row r="38" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D38" s="105"/>
       <c r="E38" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F38" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F38" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G38" s="99"/>
       <c r="H38" s="106"/>
@@ -14642,10 +14687,10 @@
     <row r="39" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D39" s="105"/>
       <c r="E39" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F39" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F39" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G39" s="99"/>
       <c r="H39" s="106"/>
@@ -14655,10 +14700,10 @@
     <row r="40" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D40" s="105"/>
       <c r="E40" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F40" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G40" s="99"/>
       <c r="H40" s="106"/>
@@ -14668,10 +14713,10 @@
     <row r="41" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D41" s="105"/>
       <c r="E41" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F41" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F41" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
@@ -14679,7 +14724,7 @@
     </row>
     <row r="49" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C49" s="93" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D49" s="94"/>
       <c r="E49" s="94"/>
@@ -14705,22 +14750,22 @@
     <row r="50" spans="3:23" ht="9" customHeight="1"/>
     <row r="51" spans="3:23" s="98" customFormat="1">
       <c r="D51" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E51" s="129"/>
       <c r="G51" s="99"/>
       <c r="H51" s="99"/>
       <c r="I51" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J51" s="129"/>
       <c r="O51" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P51" s="129"/>
       <c r="Q51" s="91"/>
       <c r="U51" s="129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V51" s="129"/>
       <c r="W51" s="91"/>
@@ -14728,164 +14773,164 @@
     <row r="52" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D52" s="100"/>
       <c r="E52" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F52" s="102" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G52" s="99"/>
       <c r="H52" s="99"/>
       <c r="I52" s="103"/>
       <c r="J52" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K52" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K52" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O52" s="103"/>
       <c r="P52" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q52" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q52" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U52" s="103"/>
       <c r="V52" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W52" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="W52" s="102" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D53" s="105"/>
       <c r="E53" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F53" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F53" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G53" s="99"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
       <c r="J53" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K53" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K53" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O53" s="103"/>
       <c r="P53" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q53" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q53" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U53" s="103"/>
       <c r="V53" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W53" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="W53" s="102" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="54" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D54" s="105"/>
       <c r="E54" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F54" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G54" s="99"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
       <c r="J54" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K54" s="102" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O54" s="103"/>
       <c r="P54" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q54" s="102" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="U54" s="103"/>
       <c r="V54" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W54" s="102" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D55" s="105"/>
       <c r="E55" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F55" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F55" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G55" s="99"/>
       <c r="H55" s="106"/>
       <c r="I55" s="105"/>
       <c r="J55" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K55" s="102"/>
       <c r="O55" s="105"/>
       <c r="P55" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q55" s="102"/>
       <c r="U55" s="105"/>
       <c r="V55" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W55" s="102"/>
     </row>
     <row r="56" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D56" s="105"/>
       <c r="E56" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F56" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F56" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G56" s="99"/>
       <c r="H56" s="106"/>
       <c r="I56" s="105"/>
       <c r="J56" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K56" s="107" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O56" s="105"/>
       <c r="P56" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q56" s="107" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="U56" s="105"/>
       <c r="V56" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W56" s="107" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="57" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D57" s="105"/>
       <c r="E57" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F57" s="108" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G57" s="99"/>
       <c r="H57" s="106"/>
@@ -14896,10 +14941,10 @@
     <row r="58" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D58" s="105"/>
       <c r="E58" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F58" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F58" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G58" s="99"/>
       <c r="H58" s="106"/>
@@ -14909,10 +14954,10 @@
     <row r="59" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D59" s="105"/>
       <c r="E59" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F59" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F59" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G59" s="99"/>
       <c r="H59" s="106"/>
@@ -14922,10 +14967,10 @@
     <row r="60" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D60" s="105"/>
       <c r="E60" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F60" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F60" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G60" s="99"/>
       <c r="H60" s="106"/>
@@ -14935,10 +14980,10 @@
     <row r="61" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D61" s="105"/>
       <c r="E61" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F61" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F61" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G61" s="99"/>
       <c r="H61" s="106"/>
@@ -14948,10 +14993,10 @@
     <row r="62" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D62" s="105"/>
       <c r="E62" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F62" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F62" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G62" s="99"/>
       <c r="H62" s="106"/>
@@ -14961,10 +15006,10 @@
     <row r="63" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D63" s="105"/>
       <c r="E63" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F63" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F63" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G63" s="99"/>
       <c r="H63" s="106"/>
@@ -14974,10 +15019,10 @@
     <row r="64" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D64" s="105"/>
       <c r="E64" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F64" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F64" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G64" s="106"/>
       <c r="H64" s="106"/>
@@ -14985,7 +15030,7 @@
     </row>
     <row r="73" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C73" s="93" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D73" s="94"/>
       <c r="E73" s="94"/>
@@ -15011,22 +15056,22 @@
     <row r="74" spans="3:23" ht="9" customHeight="1"/>
     <row r="75" spans="3:23" s="98" customFormat="1">
       <c r="D75" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E75" s="129"/>
       <c r="G75" s="99"/>
       <c r="H75" s="99"/>
       <c r="I75" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J75" s="129"/>
       <c r="O75" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P75" s="129"/>
       <c r="Q75" s="91"/>
       <c r="U75" s="129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V75" s="129"/>
       <c r="W75" s="91"/>
@@ -15034,164 +15079,164 @@
     <row r="76" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D76" s="100"/>
       <c r="E76" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F76" s="102" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G76" s="99"/>
       <c r="H76" s="99"/>
       <c r="I76" s="103"/>
       <c r="J76" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K76" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K76" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O76" s="103"/>
       <c r="P76" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q76" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q76" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U76" s="103"/>
       <c r="V76" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W76" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="W76" s="102" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="77" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D77" s="105"/>
       <c r="E77" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F77" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F77" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G77" s="99"/>
       <c r="H77" s="106"/>
       <c r="I77" s="103"/>
       <c r="J77" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K77" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K77" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O77" s="103"/>
       <c r="P77" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q77" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q77" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U77" s="103"/>
       <c r="V77" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W77" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="W77" s="102" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D78" s="105"/>
       <c r="E78" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F78" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G78" s="99"/>
       <c r="H78" s="106"/>
       <c r="I78" s="103"/>
       <c r="J78" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K78" s="102" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O78" s="103"/>
       <c r="P78" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q78" s="102" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="U78" s="103"/>
       <c r="V78" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W78" s="102" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="79" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D79" s="105"/>
       <c r="E79" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F79" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F79" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G79" s="99"/>
       <c r="H79" s="106"/>
       <c r="I79" s="105"/>
       <c r="J79" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K79" s="102"/>
       <c r="O79" s="105"/>
       <c r="P79" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q79" s="102"/>
       <c r="U79" s="105"/>
       <c r="V79" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W79" s="102"/>
     </row>
     <row r="80" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D80" s="105"/>
       <c r="E80" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F80" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F80" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G80" s="99"/>
       <c r="H80" s="106"/>
       <c r="I80" s="105"/>
       <c r="J80" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K80" s="107" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O80" s="105"/>
       <c r="P80" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q80" s="107" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="U80" s="105"/>
       <c r="V80" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W80" s="107" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="81" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D81" s="105"/>
       <c r="E81" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F81" s="108" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G81" s="99"/>
       <c r="H81" s="106"/>
@@ -15202,10 +15247,10 @@
     <row r="82" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D82" s="105"/>
       <c r="E82" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F82" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F82" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G82" s="99"/>
       <c r="H82" s="106"/>
@@ -15215,10 +15260,10 @@
     <row r="83" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D83" s="105"/>
       <c r="E83" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F83" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F83" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G83" s="99"/>
       <c r="H83" s="106"/>
@@ -15228,10 +15273,10 @@
     <row r="84" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D84" s="105"/>
       <c r="E84" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F84" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F84" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G84" s="99"/>
       <c r="H84" s="106"/>
@@ -15241,10 +15286,10 @@
     <row r="85" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D85" s="105"/>
       <c r="E85" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F85" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F85" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G85" s="99"/>
       <c r="H85" s="106"/>
@@ -15254,10 +15299,10 @@
     <row r="86" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D86" s="105"/>
       <c r="E86" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F86" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F86" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G86" s="99"/>
       <c r="H86" s="106"/>
@@ -15267,10 +15312,10 @@
     <row r="87" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D87" s="105"/>
       <c r="E87" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F87" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F87" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G87" s="99"/>
       <c r="H87" s="106"/>
@@ -15280,10 +15325,10 @@
     <row r="88" spans="4:11" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D88" s="105"/>
       <c r="E88" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F88" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F88" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G88" s="106"/>
       <c r="H88" s="106"/>
@@ -15291,7 +15336,7 @@
     </row>
     <row r="98" spans="3:31" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C98" s="93" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D98" s="94"/>
       <c r="E98" s="94"/>
@@ -15325,32 +15370,32 @@
     <row r="99" spans="3:31" ht="9" customHeight="1"/>
     <row r="100" spans="3:31" s="98" customFormat="1">
       <c r="D100" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E100" s="129"/>
       <c r="G100" s="99"/>
       <c r="H100" s="99"/>
       <c r="I100" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J100" s="129"/>
       <c r="O100" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P100" s="129"/>
       <c r="Q100" s="91"/>
       <c r="U100" s="129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V100" s="129"/>
       <c r="W100" s="91"/>
       <c r="Y100" s="129" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Z100" s="129"/>
       <c r="AA100" s="91"/>
       <c r="AC100" s="129" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AD100" s="129"/>
       <c r="AE100" s="91"/>
@@ -15358,240 +15403,240 @@
     <row r="101" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D101" s="100"/>
       <c r="E101" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F101" s="102" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G101" s="99"/>
       <c r="H101" s="99"/>
       <c r="I101" s="103"/>
       <c r="J101" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K101" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K101" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O101" s="103"/>
       <c r="P101" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q101" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q101" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U101" s="103"/>
       <c r="V101" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W101" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="W101" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="Y101" s="103"/>
       <c r="Z101" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AA101" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="AA101" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="AC101" s="103"/>
       <c r="AD101" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AE101" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="AE101" s="102" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="102" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D102" s="105"/>
       <c r="E102" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F102" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F102" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G102" s="99"/>
       <c r="H102" s="106"/>
       <c r="I102" s="103"/>
       <c r="J102" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K102" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K102" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O102" s="103"/>
       <c r="P102" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q102" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q102" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U102" s="103"/>
       <c r="V102" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W102" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="W102" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="Y102" s="103"/>
       <c r="Z102" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AA102" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="AA102" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="AC102" s="103"/>
       <c r="AD102" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AE102" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="AE102" s="102" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="103" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D103" s="105"/>
       <c r="E103" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F103" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G103" s="99"/>
       <c r="H103" s="106"/>
       <c r="I103" s="103"/>
       <c r="J103" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K103" s="102" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O103" s="103"/>
       <c r="P103" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q103" s="102" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U103" s="103"/>
       <c r="V103" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W103" s="102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Y103" s="103"/>
       <c r="Z103" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AA103" s="102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AC103" s="103"/>
       <c r="AD103" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AE103" s="102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="104" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D104" s="105"/>
       <c r="E104" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F104" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F104" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G104" s="99"/>
       <c r="H104" s="106"/>
       <c r="I104" s="105"/>
       <c r="J104" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K104" s="102" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O104" s="105"/>
       <c r="P104" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q104" s="102" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="U104" s="105"/>
       <c r="V104" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W104" s="102" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Y104" s="105"/>
       <c r="Z104" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AA104" s="102" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AC104" s="105"/>
       <c r="AD104" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AE104" s="102" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="105" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D105" s="105"/>
       <c r="E105" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F105" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F105" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G105" s="99"/>
       <c r="H105" s="106"/>
       <c r="I105" s="105"/>
       <c r="J105" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K105" s="107" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O105" s="105"/>
       <c r="P105" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q105" s="107" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U105" s="105"/>
       <c r="V105" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W105" s="107" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Y105" s="105"/>
       <c r="Z105" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA105" s="107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AC105" s="105"/>
       <c r="AD105" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AE105" s="107" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="106" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D106" s="105"/>
       <c r="E106" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F106" s="108" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G106" s="99"/>
       <c r="H106" s="106"/>
@@ -15602,10 +15647,10 @@
     <row r="107" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D107" s="105"/>
       <c r="E107" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F107" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F107" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G107" s="99"/>
       <c r="H107" s="106"/>
@@ -15615,10 +15660,10 @@
     <row r="108" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D108" s="105"/>
       <c r="E108" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F108" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F108" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G108" s="99"/>
       <c r="H108" s="106"/>
@@ -15628,10 +15673,10 @@
     <row r="109" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D109" s="105"/>
       <c r="E109" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F109" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F109" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G109" s="99"/>
       <c r="H109" s="106"/>
@@ -15641,10 +15686,10 @@
     <row r="110" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D110" s="105"/>
       <c r="E110" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F110" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F110" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G110" s="99"/>
       <c r="H110" s="106"/>
@@ -15654,10 +15699,10 @@
     <row r="111" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D111" s="105"/>
       <c r="E111" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F111" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F111" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G111" s="99"/>
       <c r="H111" s="106"/>
@@ -15667,10 +15712,10 @@
     <row r="112" spans="3:31" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D112" s="105"/>
       <c r="E112" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F112" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F112" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G112" s="99"/>
       <c r="H112" s="106"/>
@@ -15680,10 +15725,10 @@
     <row r="113" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D113" s="105"/>
       <c r="E113" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F113" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F113" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G113" s="106"/>
       <c r="H113" s="106"/>
@@ -15691,7 +15736,7 @@
     </row>
     <row r="126" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C126" s="93" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D126" s="94"/>
       <c r="E126" s="94"/>
@@ -15717,17 +15762,17 @@
     <row r="127" spans="3:23" ht="9" customHeight="1"/>
     <row r="128" spans="3:23" s="98" customFormat="1">
       <c r="D128" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E128" s="129"/>
       <c r="G128" s="99"/>
       <c r="H128" s="99"/>
       <c r="I128" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J128" s="129"/>
       <c r="O128" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P128" s="129"/>
       <c r="Q128" s="91"/>
@@ -15738,26 +15783,26 @@
     <row r="129" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D129" s="100"/>
       <c r="E129" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F129" s="102" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G129" s="99"/>
       <c r="H129" s="99"/>
       <c r="I129" s="103"/>
       <c r="J129" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K129" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K129" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O129" s="103"/>
       <c r="P129" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q129" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q129" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U129" s="103"/>
       <c r="V129" s="104"/>
@@ -15766,26 +15811,26 @@
     <row r="130" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D130" s="105"/>
       <c r="E130" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F130" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F130" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G130" s="99"/>
       <c r="H130" s="106"/>
       <c r="I130" s="103"/>
       <c r="J130" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K130" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K130" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O130" s="103"/>
       <c r="P130" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q130" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q130" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U130" s="103"/>
       <c r="V130" s="104"/>
@@ -15794,26 +15839,26 @@
     <row r="131" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D131" s="105"/>
       <c r="E131" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F131" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G131" s="99"/>
       <c r="H131" s="106"/>
       <c r="I131" s="103"/>
       <c r="J131" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K131" s="102" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O131" s="103"/>
       <c r="P131" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q131" s="102" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="U131" s="103"/>
       <c r="V131" s="104"/>
@@ -15822,21 +15867,21 @@
     <row r="132" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D132" s="105"/>
       <c r="E132" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F132" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F132" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G132" s="99"/>
       <c r="H132" s="106"/>
       <c r="I132" s="105"/>
       <c r="J132" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K132" s="102"/>
       <c r="O132" s="105"/>
       <c r="P132" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q132" s="102"/>
       <c r="U132" s="105"/>
@@ -15846,26 +15891,26 @@
     <row r="133" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D133" s="105"/>
       <c r="E133" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F133" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F133" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G133" s="99"/>
       <c r="H133" s="106"/>
       <c r="I133" s="105"/>
       <c r="J133" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K133" s="107" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O133" s="105"/>
       <c r="P133" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q133" s="107" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="U133" s="105"/>
       <c r="V133" s="104"/>
@@ -15874,10 +15919,10 @@
     <row r="134" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D134" s="105"/>
       <c r="E134" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F134" s="108" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G134" s="99"/>
       <c r="H134" s="106"/>
@@ -15888,10 +15933,10 @@
     <row r="135" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D135" s="105"/>
       <c r="E135" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F135" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F135" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G135" s="99"/>
       <c r="H135" s="106"/>
@@ -15901,10 +15946,10 @@
     <row r="136" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D136" s="105"/>
       <c r="E136" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F136" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F136" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G136" s="99"/>
       <c r="H136" s="106"/>
@@ -15914,10 +15959,10 @@
     <row r="137" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D137" s="105"/>
       <c r="E137" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F137" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F137" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G137" s="99"/>
       <c r="H137" s="106"/>
@@ -15927,10 +15972,10 @@
     <row r="138" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D138" s="105"/>
       <c r="E138" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F138" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F138" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G138" s="99"/>
       <c r="H138" s="106"/>
@@ -15940,10 +15985,10 @@
     <row r="139" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D139" s="105"/>
       <c r="E139" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F139" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F139" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G139" s="99"/>
       <c r="H139" s="106"/>
@@ -15953,10 +15998,10 @@
     <row r="140" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D140" s="105"/>
       <c r="E140" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F140" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F140" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G140" s="99"/>
       <c r="H140" s="106"/>
@@ -15966,10 +16011,10 @@
     <row r="141" spans="4:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D141" s="105"/>
       <c r="E141" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F141" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F141" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G141" s="106"/>
       <c r="H141" s="106"/>
@@ -15977,7 +16022,7 @@
     </row>
     <row r="151" spans="3:23" s="97" customFormat="1" ht="18" customHeight="1">
       <c r="C151" s="93" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D151" s="94"/>
       <c r="E151" s="94"/>
@@ -16003,22 +16048,22 @@
     <row r="152" spans="3:23" ht="9" customHeight="1"/>
     <row r="153" spans="3:23" s="98" customFormat="1">
       <c r="D153" s="129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E153" s="129"/>
       <c r="G153" s="99"/>
       <c r="H153" s="99"/>
       <c r="I153" s="129" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J153" s="129"/>
       <c r="O153" s="129" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P153" s="129"/>
       <c r="Q153" s="91"/>
       <c r="U153" s="129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V153" s="129"/>
       <c r="W153" s="91"/>
@@ -16026,164 +16071,164 @@
     <row r="154" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D154" s="100"/>
       <c r="E154" s="101" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F154" s="102" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G154" s="99"/>
       <c r="H154" s="99"/>
       <c r="I154" s="103"/>
       <c r="J154" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K154" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="K154" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="O154" s="103"/>
       <c r="P154" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q154" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q154" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="U154" s="103"/>
       <c r="V154" s="104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W154" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="W154" s="102" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="155" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D155" s="105"/>
       <c r="E155" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F155" s="102" t="s">
         <v>1028</v>
-      </c>
-      <c r="F155" s="102" t="s">
-        <v>1029</v>
       </c>
       <c r="G155" s="99"/>
       <c r="H155" s="106"/>
       <c r="I155" s="103"/>
       <c r="J155" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K155" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="K155" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="O155" s="103"/>
       <c r="P155" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q155" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q155" s="102" t="s">
-        <v>1031</v>
       </c>
       <c r="U155" s="103"/>
       <c r="V155" s="104" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W155" s="102" t="s">
         <v>1030</v>
-      </c>
-      <c r="W155" s="102" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="156" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D156" s="105"/>
       <c r="E156" s="101" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F156" s="102" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G156" s="99"/>
       <c r="H156" s="106"/>
       <c r="I156" s="103"/>
       <c r="J156" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K156" s="102" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O156" s="103"/>
       <c r="P156" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q156" s="102" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="U156" s="103"/>
       <c r="V156" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W156" s="102" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="157" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D157" s="105"/>
       <c r="E157" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F157" s="102" t="s">
         <v>1034</v>
-      </c>
-      <c r="F157" s="102" t="s">
-        <v>1035</v>
       </c>
       <c r="G157" s="99"/>
       <c r="H157" s="106"/>
       <c r="I157" s="105"/>
       <c r="J157" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K157" s="102"/>
       <c r="O157" s="105"/>
       <c r="P157" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q157" s="102"/>
       <c r="U157" s="105"/>
       <c r="V157" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W157" s="102"/>
     </row>
     <row r="158" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D158" s="105"/>
       <c r="E158" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F158" s="102" t="s">
         <v>1036</v>
-      </c>
-      <c r="F158" s="102" t="s">
-        <v>1037</v>
       </c>
       <c r="G158" s="99"/>
       <c r="H158" s="106"/>
       <c r="I158" s="105"/>
       <c r="J158" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K158" s="107" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O158" s="105"/>
       <c r="P158" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q158" s="107" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="U158" s="105"/>
       <c r="V158" s="104" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W158" s="107" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="159" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D159" s="105"/>
       <c r="E159" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F159" s="108" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G159" s="99"/>
       <c r="H159" s="106"/>
@@ -16194,10 +16239,10 @@
     <row r="160" spans="3:23" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D160" s="105"/>
       <c r="E160" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F160" s="102" t="s">
         <v>1041</v>
-      </c>
-      <c r="F160" s="102" t="s">
-        <v>1042</v>
       </c>
       <c r="G160" s="99"/>
       <c r="H160" s="106"/>
@@ -16207,10 +16252,10 @@
     <row r="161" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D161" s="105"/>
       <c r="E161" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F161" s="108" t="s">
         <v>1043</v>
-      </c>
-      <c r="F161" s="108" t="s">
-        <v>1044</v>
       </c>
       <c r="G161" s="99"/>
       <c r="H161" s="106"/>
@@ -16220,10 +16265,10 @@
     <row r="162" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D162" s="105"/>
       <c r="E162" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F162" s="108" t="s">
         <v>1045</v>
-      </c>
-      <c r="F162" s="108" t="s">
-        <v>1046</v>
       </c>
       <c r="G162" s="99"/>
       <c r="H162" s="106"/>
@@ -16233,10 +16278,10 @@
     <row r="163" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D163" s="105"/>
       <c r="E163" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F163" s="102" t="s">
         <v>1047</v>
-      </c>
-      <c r="F163" s="102" t="s">
-        <v>1048</v>
       </c>
       <c r="G163" s="99"/>
       <c r="H163" s="106"/>
@@ -16246,10 +16291,10 @@
     <row r="164" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D164" s="105"/>
       <c r="E164" s="101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F164" s="109" t="s">
         <v>1049</v>
-      </c>
-      <c r="F164" s="109" t="s">
-        <v>1050</v>
       </c>
       <c r="G164" s="99"/>
       <c r="H164" s="106"/>
@@ -16259,10 +16304,10 @@
     <row r="165" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D165" s="105"/>
       <c r="E165" s="101" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F165" s="102" t="s">
         <v>1051</v>
-      </c>
-      <c r="F165" s="102" t="s">
-        <v>1052</v>
       </c>
       <c r="G165" s="99"/>
       <c r="H165" s="106"/>
@@ -16272,10 +16317,10 @@
     <row r="166" spans="4:10" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="D166" s="105"/>
       <c r="E166" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F166" s="102" t="s">
         <v>1053</v>
-      </c>
-      <c r="F166" s="102" t="s">
-        <v>1054</v>
       </c>
       <c r="G166" s="106"/>
       <c r="H166" s="106"/>
@@ -16283,6 +16328,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="Y100:Z100"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="U75:V75"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="O4:P4"/>
@@ -16291,28 +16358,6 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="U100:V100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="Y100:Z100"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="U128:V128"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F9:H9 G4:H8 F5:F8 K5:K6 G10:H16 G17 K10 G22:H25 Q4">
@@ -16996,8 +17041,8 @@
   </sheetPr>
   <dimension ref="B1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17037,7 +17082,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>26</v>
@@ -17052,60 +17097,82 @@
         <v>16</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>983</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>984</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="4"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C3" s="85" t="s">
         <v>980</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>981</v>
+      <c r="D3" s="5" t="s">
+        <v>1131</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>1130</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="N3" s="130" t="s">
         <v>986</v>
       </c>
-      <c r="N3" s="77" t="s">
-        <v>987</v>
-      </c>
-      <c r="O3" s="76" t="s">
-        <v>987</v>
+      <c r="O3" s="131" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1129</v>
+      </c>
       <c r="E4" s="68"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="J4" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="4"/>
@@ -17575,30 +17642,30 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="15.75">
       <c r="B39" s="78" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="2:15" ht="17.25">
       <c r="B40" s="79" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="15.75">
       <c r="B41" s="78" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="2:15" s="81" customFormat="1" ht="19.5">
       <c r="B43" s="82" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C43" s="121" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="80"/>
@@ -17615,10 +17682,10 @@
     </row>
     <row r="44" spans="2:15" s="81" customFormat="1" ht="94.5" customHeight="1">
       <c r="B44" s="83" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D44" s="120"/>
       <c r="E44" s="80"/>
@@ -17635,10 +17702,10 @@
     </row>
     <row r="45" spans="2:15" s="81" customFormat="1" ht="103.5" customHeight="1">
       <c r="B45" s="83" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D45" s="120"/>
       <c r="E45" s="80"/>
@@ -17655,10 +17722,10 @@
     </row>
     <row r="46" spans="2:15" s="81" customFormat="1" ht="82.5" customHeight="1">
       <c r="B46" s="83" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D46" s="120"/>
       <c r="E46" s="80"/>
@@ -17675,7 +17742,7 @@
     </row>
     <row r="47" spans="2:15" s="81" customFormat="1" ht="16.5">
       <c r="B47" s="83" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C47" s="119"/>
       <c r="D47" s="120"/>
@@ -17693,7 +17760,7 @@
     </row>
     <row r="48" spans="2:15" s="81" customFormat="1" ht="16.5">
       <c r="B48" s="83" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C48" s="119"/>
       <c r="D48" s="120"/>
@@ -17711,7 +17778,7 @@
     </row>
     <row r="49" spans="2:15" s="81" customFormat="1" ht="16.5">
       <c r="B49" s="83" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C49" s="119"/>
       <c r="D49" s="120"/>
@@ -18078,42 +18145,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>534</v>
       </c>
       <c r="D5" s="112"/>
@@ -18127,7 +18194,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>536</v>
       </c>
       <c r="D6" s="112"/>
@@ -18141,7 +18208,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>39142</v>
       </c>
       <c r="D7" s="112"/>
@@ -18155,53 +18222,53 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>612</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>539</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="123" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -18211,35 +18278,35 @@
       <c r="B12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="127" t="s">
         <v>335</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>11</v>
       </c>
       <c r="D14" s="112"/>
@@ -18253,7 +18320,7 @@
       <c r="B15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="111">
         <v>4</v>
       </c>
       <c r="D15" s="112"/>
@@ -18267,11 +18334,11 @@
       <c r="B16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="114">
         <v>24</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -18279,9 +18346,9 @@
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="15"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
     </row>
     <row r="18" spans="1:14">
       <c r="H18" s="15"/>
@@ -18459,12 +18526,12 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="29"/>
@@ -19780,12 +19847,12 @@
       <c r="J123" s="19"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="B124" s="118" t="s">
+      <c r="B124" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="118"/>
-      <c r="D124" s="118"/>
-      <c r="E124" s="118"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="116"/>
+      <c r="E124" s="116"/>
     </row>
     <row r="125" spans="1:10">
       <c r="B125" s="30" t="s">
@@ -19903,12 +19970,12 @@
       <c r="J133" s="19"/>
     </row>
     <row r="135" spans="2:10" s="42" customFormat="1">
-      <c r="B135" s="124" t="s">
+      <c r="B135" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C135" s="124"/>
-      <c r="D135" s="124"/>
-      <c r="E135" s="124"/>
+      <c r="C135" s="122"/>
+      <c r="D135" s="122"/>
+      <c r="E135" s="122"/>
     </row>
     <row r="136" spans="2:10" s="42" customFormat="1">
       <c r="B136" s="30" t="s">
@@ -24081,6 +24148,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="B124:E124"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
@@ -24092,20 +24173,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -24141,38 +24208,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>809</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>813</v>
       </c>
       <c r="D5" s="112"/>
@@ -24182,7 +24249,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>814</v>
       </c>
       <c r="D6" s="112"/>
@@ -24192,7 +24259,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>39054</v>
       </c>
       <c r="D7" s="112"/>
@@ -24202,63 +24269,63 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="123" t="s">
         <v>815</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>25</v>
       </c>
       <c r="D14" s="112"/>
@@ -24268,7 +24335,7 @@
       <c r="B15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="111">
         <v>4</v>
       </c>
       <c r="D15" s="112"/>
@@ -24278,11 +24345,11 @@
       <c r="B16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="114">
         <v>24</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="15"/>
@@ -24431,12 +24498,12 @@
       <c r="N24" s="24"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="15" t="s">
@@ -24659,12 +24726,12 @@
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="118" t="s">
+      <c r="B71" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="118"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="30" t="s">
@@ -24682,12 +24749,12 @@
       </c>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
@@ -25491,16 +25558,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B78:E78"/>
@@ -25509,6 +25566,16 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="24"/>
   <hyperlinks>
@@ -25537,39 +25604,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>532</v>
       </c>
       <c r="D5" s="112"/>
@@ -25583,7 +25650,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>533</v>
       </c>
       <c r="D6" s="112"/>
@@ -25601,7 +25668,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>40569</v>
       </c>
       <c r="D7" s="112"/>
@@ -25612,62 +25679,62 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>20</v>
       </c>
       <c r="D13" s="112"/>
@@ -25681,7 +25748,7 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>4</v>
       </c>
       <c r="D14" s="112"/>
@@ -25695,15 +25762,15 @@
       <c r="B15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>24</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="42"/>
@@ -25711,9 +25778,9 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="15"/>
@@ -25875,12 +25942,12 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:14" s="19" customFormat="1">
       <c r="A29" s="42"/>
@@ -29604,11 +29671,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -29621,6 +29683,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -29654,42 +29721,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="112"/>
       <c r="E5" s="113"/>
       <c r="H5" s="15"/>
@@ -29701,7 +29768,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="112"/>
       <c r="E6" s="113"/>
       <c r="H6" s="15"/>
@@ -29713,7 +29780,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="112"/>
       <c r="E7" s="113"/>
       <c r="H7" s="15"/>
@@ -29725,11 +29792,11 @@
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
       <c r="I8" s="128"/>
       <c r="J8" s="128"/>
@@ -29739,63 +29806,63 @@
       <c r="B9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="127" t="s">
         <v>326</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="127" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>2</v>
       </c>
       <c r="D13" s="112"/>
@@ -29809,7 +29876,7 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>4</v>
       </c>
       <c r="D14" s="112"/>
@@ -29823,21 +29890,21 @@
       <c r="B15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>24</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="15"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="15"/>
@@ -29979,12 +30046,12 @@
       <c r="N23" s="24"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:14" s="19" customFormat="1">
       <c r="A29" s="29"/>
@@ -35716,19 +35783,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -35739,6 +35793,19 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35768,42 +35835,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>478</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>497</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>503</v>
       </c>
       <c r="D5" s="112"/>
@@ -35817,7 +35884,7 @@
       <c r="B6" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>504</v>
       </c>
       <c r="D6" s="112"/>
@@ -35831,7 +35898,7 @@
       <c r="B7" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>39430</v>
       </c>
       <c r="D7" s="112"/>
@@ -35845,11 +35912,11 @@
       <c r="B8" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
       <c r="I8" s="128"/>
       <c r="J8" s="128"/>
@@ -35859,63 +35926,63 @@
       <c r="B9" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>2</v>
       </c>
       <c r="D13" s="112"/>
@@ -35929,7 +35996,7 @@
       <c r="B14" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>4</v>
       </c>
       <c r="D14" s="112"/>
@@ -35943,21 +36010,21 @@
       <c r="B15" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>24</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="15"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="17" spans="1:12">
       <c r="H17" s="15"/>
@@ -36067,12 +36134,12 @@
       <c r="J23" s="24"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>494</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:12" s="19" customFormat="1">
       <c r="A29" s="44"/>
@@ -41420,6 +41487,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -41429,20 +41510,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41475,42 +41542,42 @@
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>527</v>
       </c>
       <c r="D5" s="112"/>
@@ -41524,7 +41591,7 @@
       <c r="B6" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="111" t="s">
         <v>530</v>
       </c>
       <c r="D6" s="112"/>
@@ -41538,7 +41605,7 @@
       <c r="B7" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="126">
         <v>40608</v>
       </c>
       <c r="D7" s="112"/>
@@ -41552,11 +41619,11 @@
       <c r="B8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="H8" s="15"/>
       <c r="I8" s="128"/>
       <c r="J8" s="128"/>
@@ -41566,63 +41633,63 @@
       <c r="B9" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="127" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="111">
         <v>2</v>
       </c>
       <c r="D13" s="112"/>
@@ -41636,7 +41703,7 @@
       <c r="B14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>4</v>
       </c>
       <c r="D14" s="112"/>
@@ -41650,21 +41717,21 @@
       <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>24</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="1:11">
       <c r="H16" s="15"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="17" spans="2:14">
       <c r="H17" s="15"/>
@@ -41842,12 +41909,12 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:14" s="19" customFormat="1">
       <c r="B29" s="18" t="s">
@@ -42536,18 +42603,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -42559,6 +42614,18 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/网络设置信息.xlsx
+++ b/网络设置信息.xlsx
@@ -6313,7 +6313,7 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6322,13 +6322,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6337,11 +6331,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6353,6 +6347,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8338,32 +8338,32 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -8373,7 +8373,7 @@
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>536</v>
       </c>
       <c r="D5" s="123"/>
@@ -8387,7 +8387,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>537</v>
       </c>
       <c r="D6" s="123"/>
@@ -8401,7 +8401,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>39444</v>
       </c>
       <c r="D7" s="123"/>
@@ -8415,11 +8415,11 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -8429,11 +8429,11 @@
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -8443,11 +8443,11 @@
       <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="H10" s="14"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -8457,11 +8457,11 @@
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -8471,11 +8471,11 @@
       <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="H12" s="14"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -8485,7 +8485,7 @@
       <c r="B13" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>16</v>
       </c>
       <c r="D13" s="123"/>
@@ -8499,7 +8499,7 @@
       <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>2</v>
       </c>
       <c r="D14" s="123"/>
@@ -8513,11 +8513,11 @@
       <c r="B15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>16</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="14"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -8642,12 +8642,12 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="2:10" s="18" customFormat="1">
       <c r="B29" s="17" t="s">
@@ -11488,8 +11488,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="C1:AE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A678" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G678" sqref="G678"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A899" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G899" sqref="G899"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -13847,22 +13847,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="U100:V100"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="AC100:AD100"/>
     <mergeCell ref="Y100:Z100"/>
@@ -13878,6 +13862,22 @@
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="O75:P75"/>
     <mergeCell ref="U75:V75"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="U28:V28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F9:H9 G4:H8 F5:F8 K5:K6 G10:H16 G17 K10 G22:H25 Q4">
@@ -14562,39 +14562,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>933</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>930</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>931</v>
       </c>
       <c r="D5" s="123"/>
@@ -14605,7 +14605,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>932</v>
       </c>
       <c r="D6" s="123"/>
@@ -14619,7 +14619,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="128" t="s">
         <v>934</v>
       </c>
       <c r="D7" s="123"/>
@@ -14630,62 +14630,62 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>935</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>4</v>
       </c>
       <c r="D13" s="123"/>
@@ -14698,14 +14698,14 @@
       <c r="B14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="125">
         <v>16</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" customHeight="1">
       <c r="B15" s="41"/>
@@ -14713,8 +14713,8 @@
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
     </row>
     <row r="16" spans="2:10" ht="16.5" customHeight="1">
       <c r="H16" s="14"/>
@@ -14836,12 +14836,12 @@
       <c r="J22" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
     </row>
     <row r="28" spans="1:10" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="41"/>
@@ -18179,22 +18179,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -18263,42 +18263,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>533</v>
       </c>
       <c r="D5" s="123"/>
@@ -18312,7 +18312,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>535</v>
       </c>
       <c r="D6" s="123"/>
@@ -18326,7 +18326,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>39142</v>
       </c>
       <c r="D7" s="123"/>
@@ -18340,53 +18340,53 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>611</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>538</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="131" t="s">
         <v>333</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -18396,35 +18396,35 @@
       <c r="B12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>11</v>
       </c>
       <c r="D14" s="123"/>
@@ -18438,7 +18438,7 @@
       <c r="B15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="122">
         <v>4</v>
       </c>
       <c r="D15" s="123"/>
@@ -18452,11 +18452,11 @@
       <c r="B16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="125">
         <v>24</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -18464,9 +18464,9 @@
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="14"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
     </row>
     <row r="18" spans="1:14">
       <c r="H18" s="14"/>
@@ -18644,12 +18644,12 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="28"/>
@@ -19965,12 +19965,12 @@
       <c r="J123" s="18"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="B124" s="129" t="s">
+      <c r="B124" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="129"/>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
     </row>
     <row r="125" spans="1:10">
       <c r="B125" s="29" t="s">
@@ -20088,12 +20088,12 @@
       <c r="J133" s="18"/>
     </row>
     <row r="135" spans="2:10" s="41" customFormat="1">
-      <c r="B135" s="132" t="s">
+      <c r="B135" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="132"/>
-      <c r="D135" s="132"/>
-      <c r="E135" s="132"/>
+      <c r="C135" s="130"/>
+      <c r="D135" s="130"/>
+      <c r="E135" s="130"/>
     </row>
     <row r="136" spans="2:10" s="41" customFormat="1">
       <c r="B136" s="29" t="s">
@@ -24266,6 +24266,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="B124:E124"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
@@ -24277,20 +24291,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -24326,38 +24326,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>808</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>812</v>
       </c>
       <c r="D5" s="123"/>
@@ -24367,7 +24367,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>813</v>
       </c>
       <c r="D6" s="123"/>
@@ -24377,7 +24377,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>39054</v>
       </c>
       <c r="D7" s="123"/>
@@ -24387,63 +24387,63 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="131" t="s">
         <v>333</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="131" t="s">
         <v>814</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>25</v>
       </c>
       <c r="D14" s="123"/>
@@ -24453,7 +24453,7 @@
       <c r="B15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="122">
         <v>4</v>
       </c>
       <c r="D15" s="123"/>
@@ -24463,11 +24463,11 @@
       <c r="B16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="125">
         <v>24</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="14"/>
@@ -24616,12 +24616,12 @@
       <c r="N24" s="23"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="14" t="s">
@@ -24844,12 +24844,12 @@
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="129" t="s">
+      <c r="B71" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="129"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
+      <c r="C71" s="127"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="29" t="s">
@@ -24867,12 +24867,12 @@
       </c>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="132"/>
-      <c r="E78" s="132"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
@@ -25676,16 +25676,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B78:E78"/>
@@ -25694,6 +25684,16 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23"/>
   <hyperlinks>
@@ -25722,39 +25722,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>531</v>
       </c>
       <c r="D5" s="123"/>
@@ -25768,7 +25768,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>532</v>
       </c>
       <c r="D6" s="123"/>
@@ -25786,7 +25786,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>40569</v>
       </c>
       <c r="D7" s="123"/>
@@ -25797,62 +25797,62 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>20</v>
       </c>
       <c r="D13" s="123"/>
@@ -25866,7 +25866,7 @@
       <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>4</v>
       </c>
       <c r="D14" s="123"/>
@@ -25880,15 +25880,15 @@
       <c r="B15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>24</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="41"/>
@@ -25896,9 +25896,9 @@
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="14"/>
@@ -26060,12 +26060,12 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1">
       <c r="A29" s="41"/>
@@ -29789,11 +29789,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -29806,6 +29801,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -29839,42 +29839,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="123"/>
       <c r="E5" s="124"/>
       <c r="H5" s="14"/>
@@ -29886,7 +29886,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="123"/>
       <c r="E6" s="124"/>
       <c r="H6" s="14"/>
@@ -29898,7 +29898,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="123"/>
       <c r="E7" s="124"/>
       <c r="H7" s="14"/>
@@ -29910,11 +29910,11 @@
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
       <c r="I8" s="136"/>
       <c r="J8" s="136"/>
@@ -29924,63 +29924,63 @@
       <c r="B9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>325</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>2</v>
       </c>
       <c r="D13" s="123"/>
@@ -29994,7 +29994,7 @@
       <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>4</v>
       </c>
       <c r="D14" s="123"/>
@@ -30008,21 +30008,21 @@
       <c r="B15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>24</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="14"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="14"/>
@@ -30164,12 +30164,12 @@
       <c r="N23" s="23"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1">
       <c r="A29" s="28"/>
@@ -35901,19 +35901,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -35924,6 +35911,19 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35953,42 +35953,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>501</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>502</v>
       </c>
       <c r="D5" s="123"/>
@@ -36002,7 +36002,7 @@
       <c r="B6" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>503</v>
       </c>
       <c r="D6" s="123"/>
@@ -36016,7 +36016,7 @@
       <c r="B7" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>39430</v>
       </c>
       <c r="D7" s="123"/>
@@ -36030,11 +36030,11 @@
       <c r="B8" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>497</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
       <c r="I8" s="136"/>
       <c r="J8" s="136"/>
@@ -36044,63 +36044,63 @@
       <c r="B9" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>495</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>2</v>
       </c>
       <c r="D13" s="123"/>
@@ -36114,7 +36114,7 @@
       <c r="B14" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>4</v>
       </c>
       <c r="D14" s="123"/>
@@ -36128,21 +36128,21 @@
       <c r="B15" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>24</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="14"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
     </row>
     <row r="17" spans="1:12">
       <c r="H17" s="14"/>
@@ -36252,12 +36252,12 @@
       <c r="J23" s="23"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>493</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1">
       <c r="A29" s="43"/>
@@ -41605,6 +41605,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C3:E3"/>
@@ -41614,20 +41628,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41660,42 +41660,42 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>526</v>
       </c>
       <c r="D5" s="123"/>
@@ -41709,7 +41709,7 @@
       <c r="B6" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="122" t="s">
         <v>529</v>
       </c>
       <c r="D6" s="123"/>
@@ -41723,7 +41723,7 @@
       <c r="B7" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="134">
         <v>40608</v>
       </c>
       <c r="D7" s="123"/>
@@ -41737,11 +41737,11 @@
       <c r="B8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
       <c r="H8" s="14"/>
       <c r="I8" s="136"/>
       <c r="J8" s="136"/>
@@ -41751,63 +41751,63 @@
       <c r="B9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="122">
         <v>2</v>
       </c>
       <c r="D13" s="123"/>
@@ -41821,7 +41821,7 @@
       <c r="B14" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="122">
         <v>4</v>
       </c>
       <c r="D14" s="123"/>
@@ -41835,21 +41835,21 @@
       <c r="B15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>24</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
     </row>
     <row r="16" spans="1:11">
       <c r="H16" s="14"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
     </row>
     <row r="17" spans="2:14">
       <c r="H17" s="14"/>
@@ -42027,12 +42027,12 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="2:14" s="18" customFormat="1">
       <c r="B29" s="17" t="s">
@@ -42721,18 +42721,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -42744,6 +42732,18 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
